--- a/final-project-review-times.xlsx
+++ b/final-project-review-times.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eric/Development/Source/cpsc-44000/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{334FEA5C-CE6F-A54D-8D26-759B789EA454}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9731E053-F6A4-E94D-8284-96563BA9CC6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="64000" windowHeight="35540" xr2:uid="{69E90249-C788-7644-B418-6A43D7DEF21A}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$34</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="28">
   <si>
     <t>Date</t>
   </si>
@@ -72,9 +72,6 @@
     <t>Software Engineering</t>
   </si>
   <si>
-    <t xml:space="preserve"> Anthony Garza</t>
-  </si>
-  <si>
     <t>PhotoWall</t>
   </si>
   <si>
@@ -90,22 +87,37 @@
     <t>Point Professor</t>
   </si>
   <si>
-    <t xml:space="preserve"> James Baptiste</t>
-  </si>
-  <si>
     <t>Medidoro</t>
   </si>
   <si>
     <t>Work Logger</t>
   </si>
   <si>
-    <t xml:space="preserve"> Kevin Kot </t>
-  </si>
-  <si>
     <t>Raptor Claws</t>
   </si>
   <si>
-    <t xml:space="preserve"> Maxwell Herold</t>
+    <t>Maxwell Herold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kevin Kot </t>
+  </si>
+  <si>
+    <t>James Baptiste</t>
+  </si>
+  <si>
+    <t>Anthony Garza</t>
+  </si>
+  <si>
+    <t>Christopher Duncan</t>
+  </si>
+  <si>
+    <t>PigOut</t>
+  </si>
+  <si>
+    <t>Dominic Bruno</t>
+  </si>
+  <si>
+    <t>NoteTaker</t>
   </si>
 </sst>
 </file>
@@ -114,7 +126,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="173" formatCode="[$-409]h:mm\ AM/PM;@"/>
+    <numFmt numFmtId="165" formatCode="[$-409]h:mm\ AM/PM;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -167,7 +179,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -196,10 +208,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -516,20 +531,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8964692-9E79-B841-82B7-608B598E1C66}">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection sqref="A1:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.83203125" style="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.5" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="1.5" style="4" customWidth="1"/>
-    <col min="6" max="6" width="29.1640625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="17.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="12.33203125" style="9" customWidth="1"/>
     <col min="9" max="9" width="12.33203125" style="4" customWidth="1"/>
     <col min="10" max="10" width="42.5" style="4" customWidth="1"/>
@@ -568,18 +583,18 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C2" s="6">
         <v>43896</v>
       </c>
       <c r="D2" s="12">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="E2" s="7"/>
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="E2" s="10"/>
       <c r="F2" s="5" t="s">
         <v>11</v>
       </c>
@@ -590,16 +605,16 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" s="6">
         <v>43896</v>
       </c>
       <c r="D3" s="12">
-        <v>0.5</v>
+        <v>43896.375</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="5" t="s">
@@ -607,59 +622,55 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="6">
         <v>43896</v>
       </c>
       <c r="D4" s="12">
-        <v>43896.375</v>
-      </c>
-      <c r="E4" s="7"/>
+        <v>0.4375</v>
+      </c>
+      <c r="E4" s="10"/>
       <c r="F4" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="5" t="s">
+      <c r="A5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="6">
         <v>43896</v>
       </c>
       <c r="D5" s="12">
-        <v>0.4375</v>
-      </c>
-      <c r="E5" s="10"/>
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="E5" s="7"/>
       <c r="F5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>20</v>
+      <c r="A6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="C6" s="6">
         <v>43896</v>
       </c>
       <c r="D6" s="12">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="E6" s="10"/>
+        <v>0.5</v>
+      </c>
+      <c r="E6" s="7"/>
       <c r="F6" s="5" t="s">
         <v>11</v>
       </c>
@@ -669,22 +680,26 @@
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>22</v>
+      <c r="B7" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="C7" s="6">
         <v>43896</v>
       </c>
       <c r="D7" s="12">
-        <v>0.48958333333333331</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
@@ -707,61 +722,76 @@
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="5"/>
       <c r="B9" s="5"/>
-      <c r="C9" s="6">
-        <v>43896</v>
-      </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="5" t="s">
-        <v>11</v>
-      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="C10" s="6">
         <v>43896</v>
       </c>
-      <c r="D10" s="12"/>
+      <c r="D10" s="13"/>
       <c r="E10" s="7"/>
       <c r="F10" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="C11" s="6">
         <v>43896</v>
       </c>
-      <c r="D11" s="12"/>
+      <c r="D11" s="12">
+        <v>0.70833333333333337</v>
+      </c>
       <c r="E11" s="7"/>
       <c r="F11" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
       <c r="C12" s="6">
         <v>43896</v>
       </c>
       <c r="D12" s="12"/>
-      <c r="E12" s="10"/>
+      <c r="E12" s="7"/>
       <c r="F12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
       <c r="C13" s="6">
         <v>43896</v>
       </c>
       <c r="D13" s="12"/>
-      <c r="E13" s="7"/>
+      <c r="E13" s="10"/>
       <c r="F13" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C14" s="6">
@@ -804,30 +834,30 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
       <c r="C18" s="6">
         <v>43896</v>
       </c>
       <c r="D18" s="12"/>
-      <c r="E18" s="10"/>
+      <c r="E18" s="7"/>
       <c r="F18" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
       <c r="C19" s="6">
         <v>43896</v>
       </c>
       <c r="D19" s="12"/>
-      <c r="E19" s="7"/>
+      <c r="E19" s="10"/>
       <c r="F19" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C20" s="6">
@@ -890,30 +920,30 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
       <c r="C26" s="6">
         <v>43896</v>
       </c>
       <c r="D26" s="12"/>
-      <c r="E26" s="10"/>
+      <c r="E26" s="7"/>
       <c r="F26" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
       <c r="C27" s="6">
         <v>43896</v>
       </c>
       <c r="D27" s="12"/>
-      <c r="E27" s="7"/>
+      <c r="E27" s="10"/>
       <c r="F27" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C28" s="6">
@@ -965,11 +995,19 @@
         <v>11</v>
       </c>
     </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C33" s="6">
+        <v>43896</v>
+      </c>
+      <c r="D33" s="12"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J38">
-    <sortCondition ref="C2:C38"/>
-    <sortCondition ref="D2:D38"/>
-    <sortCondition ref="A2:A38"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F8">
+    <sortCondition ref="D2:D8"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/final-project-review-times.xlsx
+++ b/final-project-review-times.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eric/Development/Source/cpsc-44000/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9731E053-F6A4-E94D-8284-96563BA9CC6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BFD21DA-0AB8-4B4B-9AA1-8791413536E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="64000" windowHeight="35540" xr2:uid="{69E90249-C788-7644-B418-6A43D7DEF21A}"/>
   </bookViews>
@@ -534,7 +534,7 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection sqref="A1:D8"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
